--- a/medicine/Psychotrope/Trebbiano_des_Abruzzes/Trebbiano_des_Abruzzes.xlsx
+++ b/medicine/Psychotrope/Trebbiano_des_Abruzzes/Trebbiano_des_Abruzzes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le trebbiano des Abruzzes (en italien Trebbiano d'Abruzzo) est un vin blanc italien, produit dans les Abruzzes selon une dénomination d'origine contrôlée (DOC). En 2012, un trebbiano de Valentini 2007 remporte la récompense de meilleur vin italien (Best Italian Wine Awards)[1]
+Le trebbiano des Abruzzes (en italien Trebbiano d'Abruzzo) est un vin blanc italien, produit dans les Abruzzes selon une dénomination d'origine contrôlée (DOC). En 2012, un trebbiano de Valentini 2007 remporte la récompense de meilleur vin italien (Best Italian Wine Awards)
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Zone de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Provinces de Chieti, L'Aquila, Pescara et Teramo.
 </t>
@@ -543,11 +557,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>couleur : jaune paille intense ;
 odeur : caractéristique ; parfum intense et delicat ;
-saveur : sec, velouté, harmonieux avec arrière goût d'amande[2].</t>
+saveur : sec, velouté, harmonieux avec arrière goût d'amande.</t>
         </is>
       </c>
     </row>
@@ -575,10 +591,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Saison, volume en  hl
-2007 : 429,192 [3]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saison, volume en  hl
+2007 : 429,192 </t>
         </is>
       </c>
     </row>
